--- a/sr1.xlsx
+++ b/sr1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/group23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51647EB-07F7-EA4A-ACF0-56E5232D47EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B8AE4-E816-CA49-A2B0-F1F3B2717090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="15260" xr2:uid="{B096C578-3A7A-C24E-AEA1-F26319DADAA1}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,10 +466,10 @@
         <v>1998</v>
       </c>
       <c r="B2" s="4">
-        <v>21476</v>
+        <v>16364</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -477,10 +477,10 @@
         <v>1999</v>
       </c>
       <c r="B3" s="4">
-        <v>21262</v>
+        <v>16085</v>
       </c>
       <c r="C3" s="3">
-        <v>9.89</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -488,10 +488,10 @@
         <v>2000</v>
       </c>
       <c r="B4" s="4">
-        <v>24178</v>
+        <v>15891</v>
       </c>
       <c r="C4" s="3">
-        <v>15.69</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -499,10 +499,10 @@
         <v>2001</v>
       </c>
       <c r="B5" s="4">
-        <v>24149</v>
+        <v>15659</v>
       </c>
       <c r="C5" s="3">
-        <v>17.22</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -510,10 +510,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="4">
-        <v>25551</v>
+        <v>15606</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -521,10 +521,10 @@
         <v>2003</v>
       </c>
       <c r="B7" s="4">
-        <v>28326</v>
+        <v>16169</v>
       </c>
       <c r="C7" s="3">
-        <v>25.77</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -532,10 +532,10 @@
         <v>2004</v>
       </c>
       <c r="B8" s="4">
-        <v>31347</v>
+        <v>16982</v>
       </c>
       <c r="C8" s="3">
-        <v>15.69</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -543,10 +543,10 @@
         <v>2005</v>
       </c>
       <c r="B9" s="4">
-        <v>36301</v>
+        <v>17095</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>2006</v>
       </c>
       <c r="B10" s="4">
-        <v>40052</v>
+        <v>18834</v>
       </c>
       <c r="C10" s="3">
-        <v>22.03</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -565,10 +565,10 @@
         <v>2007</v>
       </c>
       <c r="B11" s="4">
-        <v>46341</v>
+        <v>19559</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,10 +576,10 @@
         <v>2008</v>
       </c>
       <c r="B12" s="4">
-        <v>45355</v>
+        <v>19624</v>
       </c>
       <c r="C12" s="3">
-        <v>16.27</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,10 +587,10 @@
         <v>2009</v>
       </c>
       <c r="B13" s="4">
-        <v>46850</v>
+        <v>18045</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -598,10 +598,10 @@
         <v>2010</v>
       </c>
       <c r="B14" s="4">
-        <v>49307</v>
+        <v>19433</v>
       </c>
       <c r="C14" s="3">
-        <v>14.39</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,10 +609,10 @@
         <v>2011</v>
       </c>
       <c r="B15" s="4">
-        <v>51229</v>
+        <v>19429</v>
       </c>
       <c r="C15" s="3">
-        <v>34.479999999999997</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,10 +620,10 @@
         <v>2012</v>
       </c>
       <c r="B16" s="4">
-        <v>51120</v>
+        <v>19679</v>
       </c>
       <c r="C16" s="3">
-        <v>16.53</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,10 +631,10 @@
         <v>2013</v>
       </c>
       <c r="B17" s="4">
-        <v>54395</v>
+        <v>20938</v>
       </c>
       <c r="C17" s="3">
-        <v>12.96</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,10 +642,10 @@
         <v>2014</v>
       </c>
       <c r="B18" s="4">
-        <v>57005</v>
+        <v>20852</v>
       </c>
       <c r="C18" s="3">
-        <v>20.94</v>
+        <v>9.02</v>
       </c>
     </row>
   </sheetData>
